--- a/09_1.6-2022_3/Вариант 3/Вариант 3/Сессия 1/Заказ_import.xlsx
+++ b/09_1.6-2022_3/Вариант 3/Вариант 3/Сессия 1/Заказ_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfca17eb6a1f379e/Рабочий стол/Zakaz_import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Чураков\09_1.6-2022_3\Вариант 3\Вариант 3\Сессия 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{903004BF-ECEE-493C-9EBE-54A166746ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8BD3543-5F93-4BFD-A63C-37C4F4D4A77E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBEDD8B-8231-4485-9391-6A3C66539BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1020" windowWidth="17280" windowHeight="9420" xr2:uid="{53CAFFFB-B6E9-3D46-9268-8D92D2C19EE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{53CAFFFB-B6E9-3D46-9268-8D92D2C19EE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -109,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,13 +123,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times Roman"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -174,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,20 +173,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,7 +493,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -533,29 +509,29 @@
     <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2"/>
@@ -564,28 +540,28 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>44697</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>44703</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>801</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="3"/>
@@ -594,26 +570,25 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="5">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>44697</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>44703</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>14</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>802</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="1"/>
@@ -622,28 +597,28 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="5">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>44698</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>44704</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>803</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="1"/>
@@ -652,26 +627,25 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>44698</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>44704</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>22</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>804</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1"/>
@@ -680,28 +654,28 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="5">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>44700</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>44706</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>805</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="1"/>
@@ -710,26 +684,25 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>44701</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>44707</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>28</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>806</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="1"/>
@@ -738,26 +711,25 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>44703</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>44709</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>807</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="1"/>
@@ -766,26 +738,25 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="5">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>44703</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>44709</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>808</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="1"/>
@@ -794,26 +765,25 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="5">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>44705</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>44711</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>809</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="1"/>
@@ -822,28 +792,28 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="5">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>44705</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>44711</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>36</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>810</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="1"/>
@@ -854,8 +824,8 @@
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="1"/>
@@ -868,8 +838,8 @@
     <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -882,8 +852,8 @@
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
